--- a/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-2</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T14:59:16+00:00</t>
+    <t>2024-12-06T15:32:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T15:32:17+00:00</t>
+    <t>2024-12-09T10:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
+++ b/prep-publication-040/ig/StructureDefinition-ror-healthcareservice-sensitive-unit.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T10:01:28+00:00</t>
+    <t>2024-12-09T10:48:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
